--- a/source-xlsx/17-04-2020.xlsx
+++ b/source-xlsx/17-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62272947-C3A3-4D9E-9D0F-420FF8DF7EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19C432E-5DAB-4816-8878-96553BC82DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="170">
   <si>
     <t>division</t>
   </si>
@@ -874,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1255,180 +1255,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1437,10 +1438,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1449,7 +1450,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1461,24 +1462,26 @@
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>54</v>
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C53" s="2">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1488,10 +1491,10 @@
         <v>169</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +1505,10 @@
         <v>169</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1533,10 @@
         <v>169</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,10 +1561,10 @@
         <v>169</v>
       </c>
       <c r="C59" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,10 +1575,10 @@
         <v>169</v>
       </c>
       <c r="C60" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,10 +1589,10 @@
         <v>169</v>
       </c>
       <c r="C61" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1603,10 @@
         <v>169</v>
       </c>
       <c r="C62" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,10 +1617,10 @@
         <v>169</v>
       </c>
       <c r="C63" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,10 +1631,10 @@
         <v>169</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,10 +1645,10 @@
         <v>169</v>
       </c>
       <c r="C65" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,10 +1659,10 @@
         <v>169</v>
       </c>
       <c r="C66" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,10 +1771,10 @@
         <v>169</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,10 +1785,10 @@
         <v>169</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1799,10 @@
         <v>169</v>
       </c>
       <c r="C76" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,10 +1813,10 @@
         <v>169</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1827,10 @@
         <v>169</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,10 +1841,10 @@
         <v>169</v>
       </c>
       <c r="C79" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,10 +1869,10 @@
         <v>169</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,10 +1883,10 @@
         <v>169</v>
       </c>
       <c r="C82" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,10 +1911,10 @@
         <v>169</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,10 +1925,10 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,10 +1939,10 @@
         <v>169</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,10 +1953,10 @@
         <v>169</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,10 +1967,10 @@
         <v>169</v>
       </c>
       <c r="C88" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,10 +1981,10 @@
         <v>169</v>
       </c>
       <c r="C89" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,10 +1995,10 @@
         <v>169</v>
       </c>
       <c r="C90" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,10 +2009,10 @@
         <v>169</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,10 +2023,10 @@
         <v>169</v>
       </c>
       <c r="C92" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,10 +2037,10 @@
         <v>169</v>
       </c>
       <c r="C93" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,10 +2065,10 @@
         <v>169</v>
       </c>
       <c r="C95" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,10 +2079,10 @@
         <v>169</v>
       </c>
       <c r="C96" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,10 +2093,10 @@
         <v>169</v>
       </c>
       <c r="C97" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,10 +2107,10 @@
         <v>169</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,10 +2121,10 @@
         <v>169</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,10 +2135,10 @@
         <v>169</v>
       </c>
       <c r="C100" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,10 +2149,10 @@
         <v>169</v>
       </c>
       <c r="C101" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,10 +2219,10 @@
         <v>169</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,10 +2233,10 @@
         <v>169</v>
       </c>
       <c r="C107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,10 +2247,10 @@
         <v>169</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,10 +2261,10 @@
         <v>169</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,10 +2275,10 @@
         <v>169</v>
       </c>
       <c r="C110" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,10 +2289,10 @@
         <v>169</v>
       </c>
       <c r="C111" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,10 +2303,10 @@
         <v>169</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,10 +2317,10 @@
         <v>169</v>
       </c>
       <c r="C113" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,10 +2345,10 @@
         <v>169</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,10 +2359,10 @@
         <v>169</v>
       </c>
       <c r="C116" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,10 +2373,10 @@
         <v>169</v>
       </c>
       <c r="C117" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,10 +2387,10 @@
         <v>169</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,10 +2401,10 @@
         <v>169</v>
       </c>
       <c r="C119" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2415,10 @@
         <v>169</v>
       </c>
       <c r="C120" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,10 +2429,10 @@
         <v>169</v>
       </c>
       <c r="C121" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,10 +2443,10 @@
         <v>169</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,10 +2457,10 @@
         <v>169</v>
       </c>
       <c r="C123" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,10 +2471,10 @@
         <v>169</v>
       </c>
       <c r="C124" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,10 +2485,10 @@
         <v>169</v>
       </c>
       <c r="C125" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,10 +2499,10 @@
         <v>169</v>
       </c>
       <c r="C126" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,10 +2513,10 @@
         <v>169</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,10 +2527,10 @@
         <v>169</v>
       </c>
       <c r="C128" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,10 +2541,10 @@
         <v>169</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,10 +2555,10 @@
         <v>169</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2569,10 @@
         <v>169</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,10 +2583,10 @@
         <v>169</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,10 +2597,10 @@
         <v>169</v>
       </c>
       <c r="C133" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,10 +2611,10 @@
         <v>169</v>
       </c>
       <c r="C134" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,10 +2625,10 @@
         <v>169</v>
       </c>
       <c r="C135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,10 +2653,10 @@
         <v>169</v>
       </c>
       <c r="C137" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,10 +2667,10 @@
         <v>169</v>
       </c>
       <c r="C138" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,10 +2681,10 @@
         <v>169</v>
       </c>
       <c r="C139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,10 +2695,10 @@
         <v>169</v>
       </c>
       <c r="C140" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,10 +2723,10 @@
         <v>169</v>
       </c>
       <c r="C142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2737,10 @@
         <v>169</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,10 +2779,10 @@
         <v>169</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2793,10 @@
         <v>169</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,10 +2807,10 @@
         <v>169</v>
       </c>
       <c r="C148" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,10 +2821,10 @@
         <v>169</v>
       </c>
       <c r="C149" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2849,10 @@
         <v>169</v>
       </c>
       <c r="C151" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2863,10 @@
         <v>169</v>
       </c>
       <c r="C152" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2877,10 @@
         <v>169</v>
       </c>
       <c r="C153" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2905,10 @@
         <v>169</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2933,10 @@
         <v>169</v>
       </c>
       <c r="C157" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2947,10 @@
         <v>169</v>
       </c>
       <c r="C158" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2961,10 @@
         <v>169</v>
       </c>
       <c r="C159" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2975,10 @@
         <v>169</v>
       </c>
       <c r="C160" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2989,10 @@
         <v>169</v>
       </c>
       <c r="C161" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +3003,10 @@
         <v>169</v>
       </c>
       <c r="C162" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +3017,10 @@
         <v>169</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3031,10 @@
         <v>169</v>
       </c>
       <c r="C164" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,25 +3045,15 @@
         <v>169</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" s="2">
-        <v>27</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
@@ -3085,10 +3078,6 @@
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source-xlsx/17-04-2020.xlsx
+++ b/source-xlsx/17-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19C432E-5DAB-4816-8878-96553BC82DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B94734-50D2-4D71-B049-0162F7722B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="171">
   <si>
     <t>division</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>Dhaka City</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:XFD459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,8 +3055,18 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="A166" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="2">
+        <v>740</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
